--- a/report/results/results.xlsx
+++ b/report/results/results.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\OneDrive\Dropbox\Studia\I sem\Research Skills and Methodologies\RSM-project\report\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="29">
   <si>
     <t>sp-1</t>
   </si>
@@ -84,6 +79,33 @@
   </si>
   <si>
     <t>Calc time [ms]</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>TwoOpt</t>
+  </si>
+  <si>
+    <t>GreedyTwoOpt</t>
+  </si>
+  <si>
+    <t>HarmonySearch</t>
+  </si>
+  <si>
+    <t>GreedyHarmony</t>
+  </si>
+  <si>
+    <t>SimulatedAnnealing</t>
+  </si>
+  <si>
+    <t>GreedyAnnealing</t>
+  </si>
+  <si>
+    <t>sp-10</t>
+  </si>
+  <si>
+    <t>Iterations</t>
   </si>
 </sst>
 </file>
@@ -183,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,7 +240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -403,19 +425,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:AU158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1"/>
+    <col min="23" max="23" width="17.140625" customWidth="1"/>
+    <col min="27" max="27" width="24.140625" customWidth="1"/>
+    <col min="31" max="31" width="16.42578125" customWidth="1"/>
+    <col min="35" max="35" width="17.42578125" customWidth="1"/>
+    <col min="39" max="39" width="15.28515625" customWidth="1"/>
+    <col min="43" max="43" width="17" customWidth="1"/>
+    <col min="47" max="47" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +456,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -440,7 +473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -457,7 +490,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -474,7 +507,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -491,7 +524,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -507,8 +540,41 @@
       <c r="E6" s="1">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="AB6">
+        <v>6</v>
+      </c>
+      <c r="AF6">
+        <v>7</v>
+      </c>
+      <c r="AJ6">
+        <v>8</v>
+      </c>
+      <c r="AN6">
+        <v>9</v>
+      </c>
+      <c r="AR6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -524,126 +590,600 @@
       <c r="E7" s="1">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>53</v>
+      </c>
+      <c r="I8">
+        <v>56.31</v>
+      </c>
+      <c r="J8">
+        <v>61</v>
+      </c>
+      <c r="K8">
+        <v>4.66</v>
+      </c>
+      <c r="L8">
+        <v>53</v>
+      </c>
+      <c r="M8">
+        <v>57.14</v>
+      </c>
+      <c r="N8">
+        <v>63</v>
+      </c>
+      <c r="O8">
+        <v>3.99</v>
+      </c>
+      <c r="P8">
+        <v>54</v>
+      </c>
+      <c r="Q8">
+        <v>56.9</v>
+      </c>
+      <c r="R8">
+        <v>61</v>
+      </c>
+      <c r="S8">
+        <v>4.76</v>
+      </c>
+      <c r="T8">
+        <v>53</v>
+      </c>
+      <c r="U8">
+        <v>57.14</v>
+      </c>
+      <c r="V8">
+        <v>63</v>
+      </c>
+      <c r="W8">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="X8">
+        <v>54</v>
+      </c>
+      <c r="Y8">
+        <v>56.07</v>
+      </c>
+      <c r="Z8">
+        <v>59</v>
+      </c>
+      <c r="AA8">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="AB8">
+        <v>53</v>
+      </c>
+      <c r="AC8">
+        <v>55.49</v>
+      </c>
+      <c r="AD8">
+        <v>59</v>
+      </c>
+      <c r="AE8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AF8">
+        <v>53</v>
+      </c>
+      <c r="AG8">
+        <v>56.31</v>
+      </c>
+      <c r="AH8">
+        <v>61</v>
+      </c>
+      <c r="AI8">
+        <v>6.98</v>
+      </c>
+      <c r="AJ8">
+        <v>53</v>
+      </c>
+      <c r="AK8">
+        <v>56.31</v>
+      </c>
+      <c r="AL8">
+        <v>61</v>
+      </c>
+      <c r="AM8">
+        <v>4.34</v>
+      </c>
+      <c r="AN8">
+        <v>53</v>
+      </c>
+      <c r="AO8">
+        <v>55.49</v>
+      </c>
+      <c r="AP8">
+        <v>59</v>
+      </c>
+      <c r="AQ8">
+        <v>5.89</v>
+      </c>
+      <c r="AR8">
+        <v>54</v>
+      </c>
+      <c r="AS8">
+        <v>56.49</v>
+      </c>
+      <c r="AT8">
+        <v>60</v>
+      </c>
+      <c r="AU8">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>56</v>
+      </c>
+      <c r="I9">
+        <v>62.27</v>
+      </c>
+      <c r="J9">
+        <v>72</v>
+      </c>
+      <c r="K9">
+        <v>6.32</v>
+      </c>
+      <c r="L9">
+        <v>55</v>
+      </c>
+      <c r="M9">
+        <v>58.73</v>
+      </c>
+      <c r="N9">
+        <v>64</v>
+      </c>
+      <c r="O9">
+        <v>6.78</v>
+      </c>
+      <c r="P9">
+        <v>55</v>
+      </c>
+      <c r="Q9">
+        <v>59.2</v>
+      </c>
+      <c r="R9">
+        <v>66</v>
+      </c>
+      <c r="S9">
+        <v>6.74</v>
+      </c>
+      <c r="T9">
+        <v>56</v>
+      </c>
+      <c r="U9">
+        <v>60.2</v>
+      </c>
+      <c r="V9">
+        <v>67</v>
+      </c>
+      <c r="W9">
+        <v>5.9</v>
+      </c>
+      <c r="X9">
+        <v>55</v>
+      </c>
+      <c r="Y9">
+        <v>58.14</v>
+      </c>
+      <c r="Z9">
+        <v>63</v>
+      </c>
+      <c r="AA9">
+        <v>5.99</v>
+      </c>
+      <c r="AB9">
+        <v>56</v>
+      </c>
+      <c r="AC9">
+        <v>59.55</v>
+      </c>
+      <c r="AD9">
+        <v>65</v>
+      </c>
+      <c r="AE9">
+        <v>6.39</v>
+      </c>
+      <c r="AF9">
+        <v>54</v>
+      </c>
+      <c r="AG9">
+        <v>57.96</v>
+      </c>
+      <c r="AH9">
+        <v>64</v>
+      </c>
+      <c r="AI9">
+        <v>6.13</v>
+      </c>
+      <c r="AJ9">
+        <v>55</v>
+      </c>
+      <c r="AK9">
+        <v>58.73</v>
+      </c>
+      <c r="AL9">
+        <v>64</v>
+      </c>
+      <c r="AM9">
+        <v>6.01</v>
+      </c>
+      <c r="AN9">
+        <v>53</v>
+      </c>
+      <c r="AO9">
+        <v>57.97</v>
+      </c>
+      <c r="AP9">
+        <v>65</v>
+      </c>
+      <c r="AQ9">
+        <v>5.79</v>
+      </c>
+      <c r="AR9">
+        <v>54</v>
+      </c>
+      <c r="AS9">
+        <v>58.79</v>
+      </c>
+      <c r="AT9">
+        <v>66</v>
+      </c>
+      <c r="AU9">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>53</v>
+      </c>
+      <c r="I10">
+        <v>55.9</v>
+      </c>
+      <c r="J10">
+        <v>60</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="L10">
+        <v>53</v>
+      </c>
+      <c r="M10">
+        <v>55.49</v>
+      </c>
+      <c r="N10">
+        <v>59</v>
+      </c>
+      <c r="O10">
+        <v>4.7</v>
+      </c>
+      <c r="P10">
+        <v>53</v>
+      </c>
+      <c r="Q10">
+        <v>55.49</v>
+      </c>
+      <c r="R10">
+        <v>59</v>
+      </c>
+      <c r="S10">
+        <v>4.21</v>
+      </c>
+      <c r="T10">
+        <v>53</v>
+      </c>
+      <c r="U10">
+        <v>56.31</v>
+      </c>
+      <c r="V10">
+        <v>61</v>
+      </c>
+      <c r="W10">
+        <v>5.04</v>
+      </c>
+      <c r="X10">
+        <v>53</v>
+      </c>
+      <c r="Y10">
+        <v>55.49</v>
+      </c>
+      <c r="Z10">
+        <v>59</v>
+      </c>
+      <c r="AA10">
+        <v>12.64</v>
+      </c>
+      <c r="AB10">
+        <v>53</v>
+      </c>
+      <c r="AC10">
+        <v>55.49</v>
+      </c>
+      <c r="AD10">
+        <v>59</v>
+      </c>
+      <c r="AE10">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="AF10">
+        <v>53</v>
+      </c>
+      <c r="AG10">
+        <v>55.49</v>
+      </c>
+      <c r="AH10">
+        <v>59</v>
+      </c>
+      <c r="AI10">
+        <v>3.67</v>
+      </c>
+      <c r="AJ10">
+        <v>54</v>
+      </c>
+      <c r="AK10">
+        <v>56.49</v>
+      </c>
+      <c r="AL10">
+        <v>60</v>
+      </c>
+      <c r="AM10">
+        <v>3.32</v>
+      </c>
+      <c r="AN10">
+        <v>53</v>
+      </c>
+      <c r="AO10">
+        <v>55.49</v>
+      </c>
+      <c r="AP10">
+        <v>59</v>
+      </c>
+      <c r="AQ10">
+        <v>3.82</v>
+      </c>
+      <c r="AR10">
+        <v>53</v>
+      </c>
+      <c r="AS10">
+        <v>55.49</v>
+      </c>
+      <c r="AT10">
+        <v>59</v>
+      </c>
+      <c r="AU10">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>88</v>
+      </c>
+      <c r="I11">
+        <v>98.85</v>
+      </c>
+      <c r="J11">
+        <v>121</v>
+      </c>
+      <c r="K11">
+        <v>4559.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>53</v>
+      </c>
+      <c r="I12">
+        <v>57.14</v>
+      </c>
+      <c r="J12">
+        <v>63</v>
+      </c>
+      <c r="K12">
+        <v>4488.0200000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>53</v>
+      </c>
+      <c r="I13">
+        <v>55.49</v>
+      </c>
+      <c r="J13">
+        <v>59</v>
+      </c>
+      <c r="K13">
+        <v>27286.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <v>53</v>
+      </c>
+      <c r="I14">
+        <v>55.07</v>
+      </c>
+      <c r="J14">
+        <v>58</v>
+      </c>
+      <c r="K14">
+        <v>27079.61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
+      <c r="B17">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>328</v>
-      </c>
-      <c r="C11">
-        <v>328.26</v>
-      </c>
-      <c r="D11">
-        <v>337</v>
-      </c>
-      <c r="E11">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>181</v>
-      </c>
-      <c r="C12">
-        <v>181.83</v>
-      </c>
-      <c r="D12">
-        <v>183</v>
-      </c>
-      <c r="E12">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>92</v>
-      </c>
-      <c r="C13">
-        <v>94.72</v>
-      </c>
-      <c r="D13">
-        <v>99</v>
-      </c>
-      <c r="E13">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>104</v>
-      </c>
-      <c r="C14">
-        <v>105.85</v>
-      </c>
-      <c r="D14">
-        <v>109</v>
-      </c>
-      <c r="E14">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>104</v>
-      </c>
-      <c r="C15">
-        <v>105.85</v>
-      </c>
-      <c r="D15">
-        <v>109</v>
-      </c>
-      <c r="E15">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -660,210 +1200,309 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
       <c r="B19">
-        <v>542</v>
+        <v>328</v>
       </c>
       <c r="C19">
-        <v>542.65</v>
+        <v>328.26</v>
       </c>
       <c r="D19">
-        <v>560</v>
+        <v>337</v>
       </c>
       <c r="E19">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20">
-        <v>294</v>
+        <v>181</v>
       </c>
       <c r="C20">
-        <v>297.79000000000002</v>
+        <v>181.83</v>
       </c>
       <c r="D20">
-        <v>304</v>
+        <v>183</v>
       </c>
       <c r="E20">
         <v>0.16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21">
-        <v>292</v>
+        <v>92</v>
       </c>
       <c r="C21">
-        <v>296.56</v>
+        <v>94.72</v>
       </c>
       <c r="D21">
-        <v>303</v>
+        <v>99</v>
       </c>
       <c r="E21">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22">
-        <v>293</v>
+        <v>104</v>
       </c>
       <c r="C22">
-        <v>295.07</v>
+        <v>105.85</v>
       </c>
       <c r="D22">
-        <v>298</v>
+        <v>109</v>
       </c>
       <c r="E22">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.82</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+      <c r="X22">
+        <v>5</v>
+      </c>
+      <c r="AB22">
+        <v>6</v>
+      </c>
+      <c r="AF22">
+        <v>7</v>
+      </c>
+      <c r="AJ22">
+        <v>8</v>
+      </c>
+      <c r="AN22">
+        <v>9</v>
+      </c>
+      <c r="AR22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23">
-        <v>295</v>
+        <v>104</v>
       </c>
       <c r="C23">
-        <v>297.07</v>
+        <v>105.85</v>
       </c>
       <c r="D23">
-        <v>300</v>
+        <v>109</v>
       </c>
       <c r="E23">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T23" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" t="s">
+        <v>19</v>
+      </c>
+      <c r="X23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>2448</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>10913</v>
-      </c>
-      <c r="C27">
-        <v>10913.5</v>
-      </c>
-      <c r="D27">
-        <v>10985</v>
-      </c>
-      <c r="E27">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <v>5574</v>
-      </c>
-      <c r="C28">
-        <v>5583.19</v>
-      </c>
-      <c r="D28">
-        <v>5601</v>
-      </c>
-      <c r="E28">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>2694</v>
-      </c>
-      <c r="C29">
-        <v>2751.39</v>
-      </c>
-      <c r="D29">
-        <v>2879</v>
-      </c>
-      <c r="E29">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30">
-        <v>2771</v>
-      </c>
-      <c r="C30">
-        <v>2823.41</v>
-      </c>
-      <c r="D30">
-        <v>2944</v>
-      </c>
-      <c r="E30">
-        <v>19.329999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31">
-        <v>2789</v>
-      </c>
-      <c r="C31">
-        <v>2835.24</v>
-      </c>
-      <c r="D31">
-        <v>2935</v>
-      </c>
-      <c r="E31">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -880,210 +1519,309 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35">
-        <v>332</v>
+        <v>542</v>
       </c>
       <c r="C35">
-        <v>334.69</v>
+        <v>542.65</v>
       </c>
       <c r="D35">
-        <v>346</v>
+        <v>560</v>
       </c>
       <c r="E35">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
       <c r="B36">
-        <v>193</v>
+        <v>294</v>
       </c>
       <c r="C36">
-        <v>193.93</v>
+        <v>297.79000000000002</v>
       </c>
       <c r="D36">
-        <v>196</v>
+        <v>304</v>
       </c>
       <c r="E36">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
       <c r="B37">
-        <v>221</v>
+        <v>292</v>
       </c>
       <c r="C37">
-        <v>224.07</v>
+        <v>296.56</v>
       </c>
       <c r="D37">
-        <v>230</v>
+        <v>303</v>
       </c>
       <c r="E37">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="C38">
-        <v>215.87</v>
+        <v>295.07</v>
       </c>
       <c r="D38">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="E38">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>3</v>
+      </c>
+      <c r="T38">
+        <v>4</v>
+      </c>
+      <c r="X38">
+        <v>5</v>
+      </c>
+      <c r="AB38">
+        <v>6</v>
+      </c>
+      <c r="AF38">
+        <v>7</v>
+      </c>
+      <c r="AJ38">
+        <v>8</v>
+      </c>
+      <c r="AN38">
+        <v>9</v>
+      </c>
+      <c r="AR38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="C39">
-        <v>215.87</v>
+        <v>297.07</v>
       </c>
       <c r="D39">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="E39">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.68</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" t="s">
+        <v>8</v>
+      </c>
+      <c r="N39" t="s">
+        <v>9</v>
+      </c>
+      <c r="O39" t="s">
+        <v>19</v>
+      </c>
+      <c r="P39" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>8</v>
+      </c>
+      <c r="R39" t="s">
+        <v>9</v>
+      </c>
+      <c r="S39" t="s">
+        <v>19</v>
+      </c>
+      <c r="T39" t="s">
+        <v>7</v>
+      </c>
+      <c r="U39" t="s">
+        <v>8</v>
+      </c>
+      <c r="V39" t="s">
+        <v>9</v>
+      </c>
+      <c r="W39" t="s">
+        <v>19</v>
+      </c>
+      <c r="X39" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41">
-        <v>6935</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>13630</v>
-      </c>
-      <c r="C43">
-        <v>13630.38</v>
-      </c>
-      <c r="D43">
-        <v>13702</v>
-      </c>
-      <c r="E43">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>6934</v>
-      </c>
-      <c r="C44">
-        <v>6934</v>
-      </c>
-      <c r="D44">
-        <v>6934</v>
-      </c>
-      <c r="E44">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45">
-        <v>6934</v>
-      </c>
-      <c r="C45">
-        <v>6934</v>
-      </c>
-      <c r="D45">
-        <v>6934</v>
-      </c>
-      <c r="E45">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46">
-        <v>6934</v>
-      </c>
-      <c r="C46">
-        <v>6934</v>
-      </c>
-      <c r="D46">
-        <v>6934</v>
-      </c>
-      <c r="E46">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47">
-        <v>6934</v>
-      </c>
-      <c r="C47">
-        <v>6934</v>
-      </c>
-      <c r="D47">
-        <v>6934</v>
-      </c>
-      <c r="E47">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B49">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1100,210 +1838,309 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1</v>
       </c>
       <c r="B51">
-        <v>1071</v>
+        <v>10913</v>
       </c>
       <c r="C51">
-        <v>1079.01</v>
+        <v>10913.5</v>
       </c>
       <c r="D51">
-        <v>1136</v>
+        <v>10985</v>
       </c>
       <c r="E51">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
       <c r="B52">
-        <v>798</v>
+        <v>5574</v>
       </c>
       <c r="C52">
-        <v>803.98</v>
+        <v>5583.19</v>
       </c>
       <c r="D52">
-        <v>845</v>
+        <v>5601</v>
       </c>
       <c r="E52">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
       <c r="B53">
-        <v>407</v>
+        <v>2694</v>
       </c>
       <c r="C53">
-        <v>450.59</v>
+        <v>2751.39</v>
       </c>
       <c r="D53">
-        <v>540</v>
+        <v>2879</v>
       </c>
       <c r="E53">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
       <c r="B54">
-        <v>373</v>
+        <v>2771</v>
       </c>
       <c r="C54">
-        <v>405.2</v>
+        <v>2823.41</v>
       </c>
       <c r="D54">
-        <v>482</v>
+        <v>2944</v>
       </c>
       <c r="E54">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+      <c r="T54">
+        <v>4</v>
+      </c>
+      <c r="X54">
+        <v>5</v>
+      </c>
+      <c r="AB54">
+        <v>6</v>
+      </c>
+      <c r="AF54">
+        <v>7</v>
+      </c>
+      <c r="AJ54">
+        <v>8</v>
+      </c>
+      <c r="AN54">
+        <v>9</v>
+      </c>
+      <c r="AR54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
       <c r="B55">
-        <v>433</v>
+        <v>2789</v>
       </c>
       <c r="C55">
-        <v>454.12</v>
+        <v>2835.24</v>
       </c>
       <c r="D55">
-        <v>517</v>
+        <v>2935</v>
       </c>
       <c r="E55">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14.6</v>
+      </c>
+      <c r="H55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" t="s">
+        <v>7</v>
+      </c>
+      <c r="M55" t="s">
+        <v>8</v>
+      </c>
+      <c r="N55" t="s">
+        <v>9</v>
+      </c>
+      <c r="O55" t="s">
+        <v>19</v>
+      </c>
+      <c r="P55" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>8</v>
+      </c>
+      <c r="R55" t="s">
+        <v>9</v>
+      </c>
+      <c r="S55" t="s">
+        <v>19</v>
+      </c>
+      <c r="T55" t="s">
+        <v>7</v>
+      </c>
+      <c r="U55" t="s">
+        <v>8</v>
+      </c>
+      <c r="V55" t="s">
+        <v>9</v>
+      </c>
+      <c r="W55" t="s">
+        <v>19</v>
+      </c>
+      <c r="X55" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59">
-        <v>10771</v>
-      </c>
-      <c r="C59">
-        <v>10771.54</v>
-      </c>
-      <c r="D59">
-        <v>10842</v>
-      </c>
-      <c r="E59">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60">
-        <v>5499</v>
-      </c>
-      <c r="C60">
-        <v>5514.81</v>
-      </c>
-      <c r="D60">
-        <v>5547</v>
-      </c>
-      <c r="E60">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61">
-        <v>1605</v>
-      </c>
-      <c r="C61">
-        <v>1665.83</v>
-      </c>
-      <c r="D61">
-        <v>1804</v>
-      </c>
-      <c r="E61">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62">
-        <v>1479</v>
-      </c>
-      <c r="C62">
-        <v>1521.57</v>
-      </c>
-      <c r="D62">
-        <v>1607</v>
-      </c>
-      <c r="E62">
-        <v>9.44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63">
-        <v>1575</v>
-      </c>
-      <c r="C63">
-        <v>1622.07</v>
-      </c>
-      <c r="D63">
-        <v>1734</v>
-      </c>
-      <c r="E63">
-        <v>9.5399999999999991</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B65">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1320,89 +2157,1830 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
       <c r="B67">
-        <v>8666</v>
+        <v>332</v>
       </c>
       <c r="C67">
-        <v>8666.5300000000007</v>
+        <v>334.69</v>
       </c>
       <c r="D67">
-        <v>8727</v>
+        <v>346</v>
       </c>
       <c r="E67">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
       <c r="B68">
-        <v>4448</v>
+        <v>193</v>
       </c>
       <c r="C68">
-        <v>4452.43</v>
+        <v>193.93</v>
       </c>
       <c r="D68">
-        <v>4461</v>
+        <v>196</v>
       </c>
       <c r="E68">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
       <c r="B69">
-        <v>625</v>
+        <v>221</v>
       </c>
       <c r="C69">
-        <v>683.9</v>
+        <v>224.07</v>
       </c>
       <c r="D69">
-        <v>796</v>
+        <v>230</v>
       </c>
       <c r="E69">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
       <c r="B70">
-        <v>612</v>
+        <v>215</v>
       </c>
       <c r="C70">
-        <v>646.02</v>
+        <v>215.87</v>
       </c>
       <c r="D70">
-        <v>719</v>
+        <v>218</v>
       </c>
       <c r="E70">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+      <c r="G70" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="P70">
+        <v>3</v>
+      </c>
+      <c r="T70">
+        <v>4</v>
+      </c>
+      <c r="X70">
+        <v>5</v>
+      </c>
+      <c r="AB70">
+        <v>6</v>
+      </c>
+      <c r="AF70">
+        <v>7</v>
+      </c>
+      <c r="AJ70">
+        <v>8</v>
+      </c>
+      <c r="AN70">
+        <v>9</v>
+      </c>
+      <c r="AR70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
       <c r="B71">
+        <v>215</v>
+      </c>
+      <c r="C71">
+        <v>215.87</v>
+      </c>
+      <c r="D71">
+        <v>218</v>
+      </c>
+      <c r="E71">
+        <v>0.09</v>
+      </c>
+      <c r="H71" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" t="s">
+        <v>7</v>
+      </c>
+      <c r="M71" t="s">
+        <v>8</v>
+      </c>
+      <c r="N71" t="s">
+        <v>9</v>
+      </c>
+      <c r="O71" t="s">
+        <v>19</v>
+      </c>
+      <c r="P71" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>8</v>
+      </c>
+      <c r="R71" t="s">
+        <v>9</v>
+      </c>
+      <c r="S71" t="s">
+        <v>19</v>
+      </c>
+      <c r="T71" t="s">
+        <v>7</v>
+      </c>
+      <c r="U71" t="s">
+        <v>8</v>
+      </c>
+      <c r="V71" t="s">
+        <v>9</v>
+      </c>
+      <c r="W71" t="s">
+        <v>19</v>
+      </c>
+      <c r="X71" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81">
+        <v>6935</v>
+      </c>
+    </row>
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>13630</v>
+      </c>
+      <c r="C83">
+        <v>13630.38</v>
+      </c>
+      <c r="D83">
+        <v>13702</v>
+      </c>
+      <c r="E83">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>6934</v>
+      </c>
+      <c r="C84">
+        <v>6934</v>
+      </c>
+      <c r="D84">
+        <v>6934</v>
+      </c>
+      <c r="E84">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>6934</v>
+      </c>
+      <c r="C85">
+        <v>6934</v>
+      </c>
+      <c r="D85">
+        <v>6934</v>
+      </c>
+      <c r="E85">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>6934</v>
+      </c>
+      <c r="C86">
+        <v>6934</v>
+      </c>
+      <c r="D86">
+        <v>6934</v>
+      </c>
+      <c r="E86">
+        <v>1.73</v>
+      </c>
+      <c r="G86" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="P86">
+        <v>3</v>
+      </c>
+      <c r="T86">
+        <v>4</v>
+      </c>
+      <c r="X86">
+        <v>5</v>
+      </c>
+      <c r="AB86">
+        <v>6</v>
+      </c>
+      <c r="AF86">
+        <v>7</v>
+      </c>
+      <c r="AJ86">
+        <v>8</v>
+      </c>
+      <c r="AN86">
+        <v>9</v>
+      </c>
+      <c r="AR86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>6934</v>
+      </c>
+      <c r="C87">
+        <v>6934</v>
+      </c>
+      <c r="D87">
+        <v>6934</v>
+      </c>
+      <c r="E87">
+        <v>1.72</v>
+      </c>
+      <c r="H87" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" t="s">
+        <v>8</v>
+      </c>
+      <c r="J87" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" t="s">
+        <v>19</v>
+      </c>
+      <c r="L87" t="s">
+        <v>7</v>
+      </c>
+      <c r="M87" t="s">
+        <v>8</v>
+      </c>
+      <c r="N87" t="s">
+        <v>9</v>
+      </c>
+      <c r="O87" t="s">
+        <v>19</v>
+      </c>
+      <c r="P87" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>8</v>
+      </c>
+      <c r="R87" t="s">
+        <v>9</v>
+      </c>
+      <c r="S87" t="s">
+        <v>19</v>
+      </c>
+      <c r="T87" t="s">
+        <v>7</v>
+      </c>
+      <c r="U87" t="s">
+        <v>8</v>
+      </c>
+      <c r="V87" t="s">
+        <v>9</v>
+      </c>
+      <c r="W87" t="s">
+        <v>19</v>
+      </c>
+      <c r="X87" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK87" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL87" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM87" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN87" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO87" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP87" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ87" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR87" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS87" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT87" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>1071</v>
+      </c>
+      <c r="C99">
+        <v>1079.01</v>
+      </c>
+      <c r="D99">
+        <v>1136</v>
+      </c>
+      <c r="E99">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>798</v>
+      </c>
+      <c r="C100">
+        <v>803.98</v>
+      </c>
+      <c r="D100">
+        <v>845</v>
+      </c>
+      <c r="E100">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>407</v>
+      </c>
+      <c r="C101">
+        <v>450.59</v>
+      </c>
+      <c r="D101">
+        <v>540</v>
+      </c>
+      <c r="E101">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>373</v>
+      </c>
+      <c r="C102">
+        <v>405.2</v>
+      </c>
+      <c r="D102">
+        <v>482</v>
+      </c>
+      <c r="E102">
+        <v>0.86</v>
+      </c>
+      <c r="G102" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="P102">
+        <v>3</v>
+      </c>
+      <c r="T102">
+        <v>4</v>
+      </c>
+      <c r="X102">
+        <v>5</v>
+      </c>
+      <c r="AB102">
+        <v>6</v>
+      </c>
+      <c r="AF102">
+        <v>7</v>
+      </c>
+      <c r="AJ102">
+        <v>8</v>
+      </c>
+      <c r="AN102">
+        <v>9</v>
+      </c>
+      <c r="AR102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>433</v>
+      </c>
+      <c r="C103">
+        <v>454.12</v>
+      </c>
+      <c r="D103">
+        <v>517</v>
+      </c>
+      <c r="E103">
+        <v>0.78</v>
+      </c>
+      <c r="H103" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103" t="s">
+        <v>8</v>
+      </c>
+      <c r="J103" t="s">
+        <v>9</v>
+      </c>
+      <c r="K103" t="s">
+        <v>19</v>
+      </c>
+      <c r="L103" t="s">
+        <v>7</v>
+      </c>
+      <c r="M103" t="s">
+        <v>8</v>
+      </c>
+      <c r="N103" t="s">
+        <v>9</v>
+      </c>
+      <c r="O103" t="s">
+        <v>19</v>
+      </c>
+      <c r="P103" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>8</v>
+      </c>
+      <c r="R103" t="s">
+        <v>9</v>
+      </c>
+      <c r="S103" t="s">
+        <v>19</v>
+      </c>
+      <c r="T103" t="s">
+        <v>7</v>
+      </c>
+      <c r="U103" t="s">
+        <v>8</v>
+      </c>
+      <c r="V103" t="s">
+        <v>9</v>
+      </c>
+      <c r="W103" t="s">
+        <v>19</v>
+      </c>
+      <c r="X103" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF103" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG103" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH103" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ103" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK103" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM103" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN103" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO103" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP103" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ103" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR103" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS103" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT103" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>10771</v>
+      </c>
+      <c r="C115">
+        <v>10771.54</v>
+      </c>
+      <c r="D115">
+        <v>10842</v>
+      </c>
+      <c r="E115">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <v>5499</v>
+      </c>
+      <c r="C116">
+        <v>5514.81</v>
+      </c>
+      <c r="D116">
+        <v>5547</v>
+      </c>
+      <c r="E116">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117">
+        <v>1605</v>
+      </c>
+      <c r="C117">
+        <v>1665.83</v>
+      </c>
+      <c r="D117">
+        <v>1804</v>
+      </c>
+      <c r="E117">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118">
+        <v>1479</v>
+      </c>
+      <c r="C118">
+        <v>1521.57</v>
+      </c>
+      <c r="D118">
+        <v>1607</v>
+      </c>
+      <c r="E118">
+        <v>9.44</v>
+      </c>
+      <c r="G118" t="s">
+        <v>28</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="P118">
+        <v>3</v>
+      </c>
+      <c r="T118">
+        <v>4</v>
+      </c>
+      <c r="X118">
+        <v>5</v>
+      </c>
+      <c r="AB118">
+        <v>6</v>
+      </c>
+      <c r="AF118">
+        <v>7</v>
+      </c>
+      <c r="AJ118">
+        <v>8</v>
+      </c>
+      <c r="AN118">
+        <v>9</v>
+      </c>
+      <c r="AR118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119">
+        <v>1575</v>
+      </c>
+      <c r="C119">
+        <v>1622.07</v>
+      </c>
+      <c r="D119">
+        <v>1734</v>
+      </c>
+      <c r="E119">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="H119" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119" t="s">
+        <v>8</v>
+      </c>
+      <c r="J119" t="s">
+        <v>9</v>
+      </c>
+      <c r="K119" t="s">
+        <v>19</v>
+      </c>
+      <c r="L119" t="s">
+        <v>7</v>
+      </c>
+      <c r="M119" t="s">
+        <v>8</v>
+      </c>
+      <c r="N119" t="s">
+        <v>9</v>
+      </c>
+      <c r="O119" t="s">
+        <v>19</v>
+      </c>
+      <c r="P119" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>8</v>
+      </c>
+      <c r="R119" t="s">
+        <v>9</v>
+      </c>
+      <c r="S119" t="s">
+        <v>19</v>
+      </c>
+      <c r="T119" t="s">
+        <v>7</v>
+      </c>
+      <c r="U119" t="s">
+        <v>8</v>
+      </c>
+      <c r="V119" t="s">
+        <v>9</v>
+      </c>
+      <c r="W119" t="s">
+        <v>19</v>
+      </c>
+      <c r="X119" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF119" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH119" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ119" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK119" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL119" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM119" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN119" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO119" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP119" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ119" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR119" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS119" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT119" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G123" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>8666</v>
+      </c>
+      <c r="C131">
+        <v>8666.5300000000007</v>
+      </c>
+      <c r="D131">
+        <v>8727</v>
+      </c>
+      <c r="E131">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>4448</v>
+      </c>
+      <c r="C132">
+        <v>4452.43</v>
+      </c>
+      <c r="D132">
+        <v>4461</v>
+      </c>
+      <c r="E132">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>625</v>
+      </c>
+      <c r="C133">
+        <v>683.9</v>
+      </c>
+      <c r="D133">
+        <v>796</v>
+      </c>
+      <c r="E133">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134">
+        <v>612</v>
+      </c>
+      <c r="C134">
+        <v>646.02</v>
+      </c>
+      <c r="D134">
+        <v>719</v>
+      </c>
+      <c r="E134">
+        <v>0.64</v>
+      </c>
+      <c r="G134" t="s">
+        <v>28</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="P134">
+        <v>3</v>
+      </c>
+      <c r="T134">
+        <v>4</v>
+      </c>
+      <c r="X134">
+        <v>5</v>
+      </c>
+      <c r="AB134">
+        <v>6</v>
+      </c>
+      <c r="AF134">
+        <v>7</v>
+      </c>
+      <c r="AJ134">
+        <v>8</v>
+      </c>
+      <c r="AN134">
+        <v>9</v>
+      </c>
+      <c r="AR134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135">
         <v>640</v>
       </c>
-      <c r="C71">
+      <c r="C135">
         <v>666.44</v>
       </c>
-      <c r="D71">
+      <c r="D135">
         <v>739</v>
       </c>
-      <c r="E71">
+      <c r="E135">
         <v>0.67</v>
+      </c>
+      <c r="H135" t="s">
+        <v>7</v>
+      </c>
+      <c r="I135" t="s">
+        <v>8</v>
+      </c>
+      <c r="J135" t="s">
+        <v>9</v>
+      </c>
+      <c r="K135" t="s">
+        <v>19</v>
+      </c>
+      <c r="L135" t="s">
+        <v>7</v>
+      </c>
+      <c r="M135" t="s">
+        <v>8</v>
+      </c>
+      <c r="N135" t="s">
+        <v>9</v>
+      </c>
+      <c r="O135" t="s">
+        <v>19</v>
+      </c>
+      <c r="P135" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>8</v>
+      </c>
+      <c r="R135" t="s">
+        <v>9</v>
+      </c>
+      <c r="S135" t="s">
+        <v>19</v>
+      </c>
+      <c r="T135" t="s">
+        <v>7</v>
+      </c>
+      <c r="U135" t="s">
+        <v>8</v>
+      </c>
+      <c r="V135" t="s">
+        <v>9</v>
+      </c>
+      <c r="W135" t="s">
+        <v>19</v>
+      </c>
+      <c r="X135" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y135" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z135" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA135" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB135" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC135" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD135" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE135" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF135" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG135" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH135" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI135" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ135" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK135" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL135" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM135" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN135" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO135" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP135" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ135" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR135" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS135" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT135" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU135" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>25</v>
+      </c>
+      <c r="G141" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="G150" t="s">
+        <v>28</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="P150">
+        <v>3</v>
+      </c>
+      <c r="T150">
+        <v>4</v>
+      </c>
+      <c r="X150">
+        <v>5</v>
+      </c>
+      <c r="AB150">
+        <v>6</v>
+      </c>
+      <c r="AF150">
+        <v>7</v>
+      </c>
+      <c r="AJ150">
+        <v>8</v>
+      </c>
+      <c r="AN150">
+        <v>9</v>
+      </c>
+      <c r="AR150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="H151" t="s">
+        <v>7</v>
+      </c>
+      <c r="I151" t="s">
+        <v>8</v>
+      </c>
+      <c r="J151" t="s">
+        <v>9</v>
+      </c>
+      <c r="K151" t="s">
+        <v>19</v>
+      </c>
+      <c r="L151" t="s">
+        <v>7</v>
+      </c>
+      <c r="M151" t="s">
+        <v>8</v>
+      </c>
+      <c r="N151" t="s">
+        <v>9</v>
+      </c>
+      <c r="O151" t="s">
+        <v>19</v>
+      </c>
+      <c r="P151" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>8</v>
+      </c>
+      <c r="R151" t="s">
+        <v>9</v>
+      </c>
+      <c r="S151" t="s">
+        <v>19</v>
+      </c>
+      <c r="T151" t="s">
+        <v>7</v>
+      </c>
+      <c r="U151" t="s">
+        <v>8</v>
+      </c>
+      <c r="V151" t="s">
+        <v>9</v>
+      </c>
+      <c r="W151" t="s">
+        <v>19</v>
+      </c>
+      <c r="X151" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y151" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA151" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB151" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD151" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE151" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF151" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG151" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH151" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI151" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ151" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK151" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL151" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM151" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN151" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO151" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP151" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ151" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR151" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS151" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT151" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="G153" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>22</v>
+      </c>
+      <c r="G154" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>23</v>
+      </c>
+      <c r="G155" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>24</v>
+      </c>
+      <c r="G156" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>25</v>
+      </c>
+      <c r="G157" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>26</v>
+      </c>
+      <c r="G158" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/report/results/results.xlsx
+++ b/report/results/results.xlsx
@@ -417,7 +417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,6 +1114,114 @@
       <c r="K11">
         <v>4559.59</v>
       </c>
+      <c r="L11">
+        <v>75</v>
+      </c>
+      <c r="M11">
+        <v>84.02</v>
+      </c>
+      <c r="N11">
+        <v>101</v>
+      </c>
+      <c r="O11">
+        <v>4860.3</v>
+      </c>
+      <c r="P11">
+        <v>73</v>
+      </c>
+      <c r="Q11">
+        <v>83.65</v>
+      </c>
+      <c r="R11">
+        <v>100</v>
+      </c>
+      <c r="S11">
+        <v>5378.13</v>
+      </c>
+      <c r="T11">
+        <v>79</v>
+      </c>
+      <c r="U11">
+        <v>86.76</v>
+      </c>
+      <c r="V11">
+        <v>104</v>
+      </c>
+      <c r="W11">
+        <v>4449.07</v>
+      </c>
+      <c r="X11">
+        <v>77</v>
+      </c>
+      <c r="Y11">
+        <v>87.17</v>
+      </c>
+      <c r="Z11">
+        <v>106</v>
+      </c>
+      <c r="AA11">
+        <v>4157.08</v>
+      </c>
+      <c r="AB11">
+        <v>79</v>
+      </c>
+      <c r="AC11">
+        <v>89.19</v>
+      </c>
+      <c r="AD11">
+        <v>109</v>
+      </c>
+      <c r="AE11">
+        <v>4483.04</v>
+      </c>
+      <c r="AF11">
+        <v>88</v>
+      </c>
+      <c r="AG11">
+        <v>98.39</v>
+      </c>
+      <c r="AH11">
+        <v>122</v>
+      </c>
+      <c r="AI11">
+        <v>4623.55</v>
+      </c>
+      <c r="AJ11">
+        <v>89</v>
+      </c>
+      <c r="AK11">
+        <v>97.82</v>
+      </c>
+      <c r="AL11">
+        <v>116</v>
+      </c>
+      <c r="AM11">
+        <v>4693.6000000000004</v>
+      </c>
+      <c r="AN11">
+        <v>81</v>
+      </c>
+      <c r="AO11">
+        <v>89.86</v>
+      </c>
+      <c r="AP11">
+        <v>106</v>
+      </c>
+      <c r="AQ11">
+        <v>5056.0600000000004</v>
+      </c>
+      <c r="AR11">
+        <v>89</v>
+      </c>
+      <c r="AS11">
+        <v>98.11</v>
+      </c>
+      <c r="AT11">
+        <v>118</v>
+      </c>
+      <c r="AU11">
+        <v>4551.22</v>
+      </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1134,6 +1242,114 @@
       <c r="K12">
         <v>4488.0200000000004</v>
       </c>
+      <c r="L12">
+        <v>53</v>
+      </c>
+      <c r="M12">
+        <v>55.49</v>
+      </c>
+      <c r="N12">
+        <v>59</v>
+      </c>
+      <c r="O12">
+        <v>5163.8999999999996</v>
+      </c>
+      <c r="P12">
+        <v>53</v>
+      </c>
+      <c r="Q12">
+        <v>56.31</v>
+      </c>
+      <c r="R12">
+        <v>61</v>
+      </c>
+      <c r="S12">
+        <v>4993.5600000000004</v>
+      </c>
+      <c r="T12">
+        <v>53</v>
+      </c>
+      <c r="U12">
+        <v>56.31</v>
+      </c>
+      <c r="V12">
+        <v>61</v>
+      </c>
+      <c r="W12">
+        <v>4467.3</v>
+      </c>
+      <c r="X12">
+        <v>53</v>
+      </c>
+      <c r="Y12">
+        <v>56.31</v>
+      </c>
+      <c r="Z12">
+        <v>61</v>
+      </c>
+      <c r="AA12">
+        <v>4448.62</v>
+      </c>
+      <c r="AB12">
+        <v>53</v>
+      </c>
+      <c r="AC12">
+        <v>55.49</v>
+      </c>
+      <c r="AD12">
+        <v>59</v>
+      </c>
+      <c r="AE12">
+        <v>4661.7299999999996</v>
+      </c>
+      <c r="AF12">
+        <v>54</v>
+      </c>
+      <c r="AG12">
+        <v>57.96</v>
+      </c>
+      <c r="AH12">
+        <v>64</v>
+      </c>
+      <c r="AI12">
+        <v>4614.1400000000003</v>
+      </c>
+      <c r="AJ12">
+        <v>53</v>
+      </c>
+      <c r="AK12">
+        <v>55.49</v>
+      </c>
+      <c r="AL12">
+        <v>59</v>
+      </c>
+      <c r="AM12">
+        <v>4776.7299999999996</v>
+      </c>
+      <c r="AN12">
+        <v>53</v>
+      </c>
+      <c r="AO12">
+        <v>56.31</v>
+      </c>
+      <c r="AP12">
+        <v>61</v>
+      </c>
+      <c r="AQ12">
+        <v>4753.03</v>
+      </c>
+      <c r="AR12">
+        <v>53</v>
+      </c>
+      <c r="AS12">
+        <v>55.49</v>
+      </c>
+      <c r="AT12">
+        <v>59</v>
+      </c>
+      <c r="AU12">
+        <v>4658.1899999999996</v>
+      </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1146,13 +1362,121 @@
         <v>53</v>
       </c>
       <c r="I13">
-        <v>55.49</v>
+        <v>55.07</v>
       </c>
       <c r="J13">
+        <v>58</v>
+      </c>
+      <c r="K13">
+        <v>3639.51</v>
+      </c>
+      <c r="L13">
+        <v>53</v>
+      </c>
+      <c r="M13">
+        <v>54.66</v>
+      </c>
+      <c r="N13">
+        <v>57</v>
+      </c>
+      <c r="O13">
+        <v>2813.19</v>
+      </c>
+      <c r="P13">
+        <v>53</v>
+      </c>
+      <c r="Q13">
+        <v>54.66</v>
+      </c>
+      <c r="R13">
+        <v>57</v>
+      </c>
+      <c r="S13">
+        <v>2014.53</v>
+      </c>
+      <c r="T13">
+        <v>53</v>
+      </c>
+      <c r="U13">
+        <v>54.66</v>
+      </c>
+      <c r="V13">
+        <v>57</v>
+      </c>
+      <c r="W13">
+        <v>2894.68</v>
+      </c>
+      <c r="X13">
+        <v>54</v>
+      </c>
+      <c r="Y13">
+        <v>55.89</v>
+      </c>
+      <c r="Z13">
         <v>59</v>
       </c>
-      <c r="K13">
-        <v>27286.01</v>
+      <c r="AA13">
+        <v>2163.38</v>
+      </c>
+      <c r="AB13">
+        <v>53</v>
+      </c>
+      <c r="AC13">
+        <v>54.66</v>
+      </c>
+      <c r="AD13">
+        <v>57</v>
+      </c>
+      <c r="AE13">
+        <v>2210.59</v>
+      </c>
+      <c r="AF13">
+        <v>53</v>
+      </c>
+      <c r="AG13">
+        <v>54.66</v>
+      </c>
+      <c r="AH13">
+        <v>57</v>
+      </c>
+      <c r="AI13">
+        <v>1644.59</v>
+      </c>
+      <c r="AJ13">
+        <v>53</v>
+      </c>
+      <c r="AK13">
+        <v>54.24</v>
+      </c>
+      <c r="AL13">
+        <v>56</v>
+      </c>
+      <c r="AM13">
+        <v>1614.66</v>
+      </c>
+      <c r="AN13">
+        <v>53</v>
+      </c>
+      <c r="AO13">
+        <v>54.66</v>
+      </c>
+      <c r="AP13">
+        <v>57</v>
+      </c>
+      <c r="AQ13">
+        <v>3009.58</v>
+      </c>
+      <c r="AR13">
+        <v>53</v>
+      </c>
+      <c r="AS13">
+        <v>54.66</v>
+      </c>
+      <c r="AT13">
+        <v>57</v>
+      </c>
+      <c r="AU13">
+        <v>1941.48</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
@@ -1172,7 +1496,115 @@
         <v>58</v>
       </c>
       <c r="K14">
-        <v>27079.61</v>
+        <v>820.42</v>
+      </c>
+      <c r="L14">
+        <v>53</v>
+      </c>
+      <c r="M14">
+        <v>55.49</v>
+      </c>
+      <c r="N14">
+        <v>59</v>
+      </c>
+      <c r="O14">
+        <v>1147.57</v>
+      </c>
+      <c r="P14">
+        <v>53</v>
+      </c>
+      <c r="Q14">
+        <v>55.49</v>
+      </c>
+      <c r="R14">
+        <v>59</v>
+      </c>
+      <c r="S14">
+        <v>785.07</v>
+      </c>
+      <c r="T14">
+        <v>53</v>
+      </c>
+      <c r="U14">
+        <v>55.49</v>
+      </c>
+      <c r="V14">
+        <v>59</v>
+      </c>
+      <c r="W14">
+        <v>862.46</v>
+      </c>
+      <c r="X14">
+        <v>53</v>
+      </c>
+      <c r="Y14">
+        <v>55.49</v>
+      </c>
+      <c r="Z14">
+        <v>59</v>
+      </c>
+      <c r="AA14">
+        <v>747.02</v>
+      </c>
+      <c r="AB14">
+        <v>53</v>
+      </c>
+      <c r="AC14">
+        <v>55.49</v>
+      </c>
+      <c r="AD14">
+        <v>59</v>
+      </c>
+      <c r="AE14">
+        <v>1376.63</v>
+      </c>
+      <c r="AF14">
+        <v>53</v>
+      </c>
+      <c r="AG14">
+        <v>55.49</v>
+      </c>
+      <c r="AH14">
+        <v>59</v>
+      </c>
+      <c r="AI14">
+        <v>885.12</v>
+      </c>
+      <c r="AJ14">
+        <v>53</v>
+      </c>
+      <c r="AK14">
+        <v>55.49</v>
+      </c>
+      <c r="AL14">
+        <v>59</v>
+      </c>
+      <c r="AM14">
+        <v>920.58</v>
+      </c>
+      <c r="AN14">
+        <v>53</v>
+      </c>
+      <c r="AO14">
+        <v>55.49</v>
+      </c>
+      <c r="AP14">
+        <v>59</v>
+      </c>
+      <c r="AQ14">
+        <v>750.21</v>
+      </c>
+      <c r="AR14">
+        <v>53</v>
+      </c>
+      <c r="AS14">
+        <v>55.49</v>
+      </c>
+      <c r="AT14">
+        <v>59</v>
+      </c>
+      <c r="AU14">
+        <v>716.4</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
@@ -1442,6 +1874,18 @@
       <c r="A24" t="s">
         <v>20</v>
       </c>
+      <c r="B24">
+        <v>88</v>
+      </c>
+      <c r="C24">
+        <v>93.38</v>
+      </c>
+      <c r="D24">
+        <v>101</v>
+      </c>
+      <c r="E24">
+        <v>11.2</v>
+      </c>
       <c r="G24" t="s">
         <v>20</v>
       </c>
@@ -1450,6 +1894,18 @@
       <c r="A25" t="s">
         <v>21</v>
       </c>
+      <c r="B25">
+        <v>87</v>
+      </c>
+      <c r="C25">
+        <v>94.87</v>
+      </c>
+      <c r="D25">
+        <v>106</v>
+      </c>
+      <c r="E25">
+        <v>76.13</v>
+      </c>
       <c r="G25" t="s">
         <v>21</v>
       </c>
@@ -1458,6 +1914,18 @@
       <c r="A26" t="s">
         <v>22</v>
       </c>
+      <c r="B26">
+        <v>87</v>
+      </c>
+      <c r="C26">
+        <v>95.28</v>
+      </c>
+      <c r="D26">
+        <v>107</v>
+      </c>
+      <c r="E26">
+        <v>12.2</v>
+      </c>
       <c r="G26" t="s">
         <v>22</v>
       </c>
@@ -1466,6 +1934,18 @@
       <c r="A27" t="s">
         <v>23</v>
       </c>
+      <c r="B27">
+        <v>201</v>
+      </c>
+      <c r="C27">
+        <v>222.5</v>
+      </c>
+      <c r="D27">
+        <v>276</v>
+      </c>
+      <c r="E27">
+        <v>25046.27</v>
+      </c>
       <c r="G27" t="s">
         <v>23</v>
       </c>
@@ -1474,6 +1954,18 @@
       <c r="A28" t="s">
         <v>24</v>
       </c>
+      <c r="B28">
+        <v>88</v>
+      </c>
+      <c r="C28">
+        <v>95.87</v>
+      </c>
+      <c r="D28">
+        <v>107</v>
+      </c>
+      <c r="E28">
+        <v>24071.08</v>
+      </c>
       <c r="G28" t="s">
         <v>24</v>
       </c>
@@ -1482,6 +1974,18 @@
       <c r="A29" t="s">
         <v>25</v>
       </c>
+      <c r="B29">
+        <v>87</v>
+      </c>
+      <c r="C29">
+        <v>92.38</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>5110.3999999999996</v>
+      </c>
       <c r="G29" t="s">
         <v>25</v>
       </c>
@@ -1490,6 +1994,18 @@
       <c r="A30" t="s">
         <v>26</v>
       </c>
+      <c r="B30">
+        <v>87</v>
+      </c>
+      <c r="C30">
+        <v>91.56</v>
+      </c>
+      <c r="D30">
+        <v>98</v>
+      </c>
+      <c r="E30">
+        <v>2561.27</v>
+      </c>
       <c r="G30" t="s">
         <v>26</v>
       </c>
@@ -1761,6 +2277,18 @@
       <c r="A40" t="s">
         <v>20</v>
       </c>
+      <c r="B40">
+        <v>292</v>
+      </c>
+      <c r="C40">
+        <v>315.2</v>
+      </c>
+      <c r="D40">
+        <v>348</v>
+      </c>
+      <c r="E40">
+        <v>33.479999999999997</v>
+      </c>
       <c r="G40" t="s">
         <v>20</v>
       </c>
@@ -1769,6 +2297,18 @@
       <c r="A41" t="s">
         <v>21</v>
       </c>
+      <c r="B41">
+        <v>292</v>
+      </c>
+      <c r="C41">
+        <v>312.70999999999998</v>
+      </c>
+      <c r="D41">
+        <v>342</v>
+      </c>
+      <c r="E41">
+        <v>1067.79</v>
+      </c>
       <c r="G41" t="s">
         <v>21</v>
       </c>
@@ -1777,6 +2317,18 @@
       <c r="A42" t="s">
         <v>22</v>
       </c>
+      <c r="B42">
+        <v>292</v>
+      </c>
+      <c r="C42">
+        <v>313.95</v>
+      </c>
+      <c r="D42">
+        <v>345</v>
+      </c>
+      <c r="E42">
+        <v>52.34</v>
+      </c>
       <c r="G42" t="s">
         <v>22</v>
       </c>
@@ -1785,6 +2337,18 @@
       <c r="A43" t="s">
         <v>23</v>
       </c>
+      <c r="B43">
+        <v>1724</v>
+      </c>
+      <c r="C43">
+        <v>1900.27</v>
+      </c>
+      <c r="D43">
+        <v>2396</v>
+      </c>
+      <c r="E43">
+        <v>55455.87</v>
+      </c>
       <c r="G43" t="s">
         <v>23</v>
       </c>
@@ -1793,6 +2357,18 @@
       <c r="A44" t="s">
         <v>24</v>
       </c>
+      <c r="B44">
+        <v>292</v>
+      </c>
+      <c r="C44">
+        <v>321.41000000000003</v>
+      </c>
+      <c r="D44">
+        <v>363</v>
+      </c>
+      <c r="E44">
+        <v>52144.82</v>
+      </c>
       <c r="G44" t="s">
         <v>24</v>
       </c>
@@ -1801,6 +2377,18 @@
       <c r="A45" t="s">
         <v>25</v>
       </c>
+      <c r="B45">
+        <v>293</v>
+      </c>
+      <c r="C45">
+        <v>313.12</v>
+      </c>
+      <c r="D45">
+        <v>342</v>
+      </c>
+      <c r="E45">
+        <v>24268.09</v>
+      </c>
       <c r="G45" t="s">
         <v>25</v>
       </c>
@@ -1809,6 +2397,18 @@
       <c r="A46" t="s">
         <v>26</v>
       </c>
+      <c r="B46">
+        <v>292</v>
+      </c>
+      <c r="C46">
+        <v>318.10000000000002</v>
+      </c>
+      <c r="D46">
+        <v>355</v>
+      </c>
+      <c r="E46">
+        <v>3879.46</v>
+      </c>
       <c r="G46" t="s">
         <v>26</v>
       </c>
@@ -2080,6 +2680,18 @@
       <c r="A56" t="s">
         <v>20</v>
       </c>
+      <c r="B56">
+        <v>2547</v>
+      </c>
+      <c r="C56">
+        <v>2809.71</v>
+      </c>
+      <c r="D56">
+        <v>3194</v>
+      </c>
+      <c r="E56">
+        <v>663.02</v>
+      </c>
       <c r="G56" t="s">
         <v>20</v>
       </c>
@@ -2088,6 +2700,18 @@
       <c r="A57" t="s">
         <v>21</v>
       </c>
+      <c r="B57">
+        <v>2518</v>
+      </c>
+      <c r="C57">
+        <v>2705.01</v>
+      </c>
+      <c r="D57">
+        <v>2984</v>
+      </c>
+      <c r="E57">
+        <v>873271.53</v>
+      </c>
       <c r="G57" t="s">
         <v>21</v>
       </c>
@@ -2096,6 +2720,18 @@
       <c r="A58" t="s">
         <v>22</v>
       </c>
+      <c r="B58">
+        <v>2485</v>
+      </c>
+      <c r="C58">
+        <v>2703.66</v>
+      </c>
+      <c r="D58">
+        <v>3017</v>
+      </c>
+      <c r="E58">
+        <v>27494.09</v>
+      </c>
       <c r="G58" t="s">
         <v>22</v>
       </c>
@@ -2104,6 +2740,18 @@
       <c r="A59" t="s">
         <v>23</v>
       </c>
+      <c r="B59">
+        <v>81686</v>
+      </c>
+      <c r="C59">
+        <v>90773.45</v>
+      </c>
+      <c r="D59">
+        <v>115397</v>
+      </c>
+      <c r="E59">
+        <v>1771093.39</v>
+      </c>
       <c r="G59" t="s">
         <v>23</v>
       </c>
@@ -2111,6 +2759,18 @@
     <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>24</v>
+      </c>
+      <c r="B60">
+        <v>2563</v>
+      </c>
+      <c r="C60">
+        <v>2811.81</v>
+      </c>
+      <c r="D60">
+        <v>3186</v>
+      </c>
+      <c r="E60">
+        <v>2270588.38</v>
       </c>
       <c r="G60" t="s">
         <v>24</v>

--- a/report/results/results.xlsx
+++ b/report/results/results.xlsx
@@ -421,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142:E142"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2472,6 +2472,9 @@
       <c r="A145" t="s">
         <v>27</v>
       </c>
+      <c r="B145">
+        <v>411</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
@@ -2616,7 +2619,7 @@
       <c r="B154" s="1">
         <v>1031</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="2">
         <v>1165.99</v>
       </c>
       <c r="D154" s="1">
@@ -2681,13 +2684,13 @@
       <c r="A158" t="s">
         <v>26</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="2">
         <v>1049</v>
       </c>
       <c r="C158" s="1">
         <v>1173.07</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="2">
         <v>1465</v>
       </c>
       <c r="E158" s="1">

--- a/report/results/results.xlsx
+++ b/report/results/results.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\OneDrive\Dropbox\Studia\I sem\Research Skills and Methodologies\RSM-project\report\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="28">
   <si>
     <t>sp-1</t>
   </si>
@@ -85,6 +80,30 @@
   <si>
     <t>Calc time [ms]</t>
   </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>TwoOpt</t>
+  </si>
+  <si>
+    <t>GreedyTwoOpt</t>
+  </si>
+  <si>
+    <t>HarmonySearch</t>
+  </si>
+  <si>
+    <t>GreedyHarmony</t>
+  </si>
+  <si>
+    <t>SimulatedAnnealing</t>
+  </si>
+  <si>
+    <t>GreedyAnnealing</t>
+  </si>
+  <si>
+    <t>sp-10</t>
+  </si>
 </sst>
 </file>
 
@@ -100,12 +119,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,9 +145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -183,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,7 +244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -403,19 +429,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:K158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1"/>
+    <col min="23" max="23" width="17.140625" customWidth="1"/>
+    <col min="27" max="27" width="24.140625" customWidth="1"/>
+    <col min="31" max="31" width="16.42578125" customWidth="1"/>
+    <col min="35" max="35" width="17.42578125" customWidth="1"/>
+    <col min="39" max="39" width="15.28515625" customWidth="1"/>
+    <col min="43" max="43" width="17" customWidth="1"/>
+    <col min="47" max="47" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +462,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -440,207 +479,217 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>107</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>107.96</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>116</v>
       </c>
       <c r="E3" s="1">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>65</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>66.66</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>69</v>
       </c>
       <c r="E4" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>59</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>62.3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>68</v>
       </c>
       <c r="E5" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>64</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>64.63</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>67</v>
       </c>
       <c r="E6" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>64</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>64.47</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>66</v>
       </c>
       <c r="E7" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1">
+        <v>57.14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1">
+        <v>58.73</v>
+      </c>
+      <c r="D9" s="1">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1">
+        <v>55.49</v>
+      </c>
+      <c r="D10" s="1">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>328</v>
-      </c>
-      <c r="C11">
-        <v>328.26</v>
-      </c>
-      <c r="D11">
-        <v>337</v>
-      </c>
-      <c r="E11">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>84.02</v>
+      </c>
+      <c r="D11" s="1">
+        <v>101</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4860.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>181</v>
-      </c>
-      <c r="C12">
-        <v>181.83</v>
-      </c>
-      <c r="D12">
-        <v>183</v>
-      </c>
-      <c r="E12">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1">
+        <v>55.49</v>
+      </c>
+      <c r="D12" s="1">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5163.8999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>92</v>
-      </c>
-      <c r="C13">
-        <v>94.72</v>
-      </c>
-      <c r="D13">
-        <v>99</v>
-      </c>
-      <c r="E13">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1">
+        <v>54.66</v>
+      </c>
+      <c r="D13" s="1">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2813.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>104</v>
-      </c>
-      <c r="C14">
-        <v>105.85</v>
-      </c>
-      <c r="D14">
-        <v>109</v>
-      </c>
-      <c r="E14">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>104</v>
-      </c>
-      <c r="C15">
-        <v>105.85</v>
-      </c>
-      <c r="D15">
-        <v>109</v>
-      </c>
-      <c r="E15">
-        <v>2.39</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="1">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1">
+        <v>55.49</v>
+      </c>
+      <c r="D14" s="1">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1147.57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>293</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -664,33 +713,33 @@
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19">
-        <v>542</v>
-      </c>
-      <c r="C19">
-        <v>542.65</v>
-      </c>
-      <c r="D19">
-        <v>560</v>
-      </c>
-      <c r="E19">
-        <v>0.15</v>
+      <c r="B19" s="1">
+        <v>328</v>
+      </c>
+      <c r="C19" s="1">
+        <v>328.26</v>
+      </c>
+      <c r="D19" s="1">
+        <v>337</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="B20">
-        <v>294</v>
-      </c>
-      <c r="C20">
-        <v>297.79000000000002</v>
-      </c>
-      <c r="D20">
-        <v>304</v>
-      </c>
-      <c r="E20">
+      <c r="B20" s="1">
+        <v>181</v>
+      </c>
+      <c r="C20" s="1">
+        <v>181.83</v>
+      </c>
+      <c r="D20" s="1">
+        <v>183</v>
+      </c>
+      <c r="E20" s="1">
         <v>0.16</v>
       </c>
     </row>
@@ -698,169 +747,178 @@
       <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B21">
-        <v>292</v>
-      </c>
-      <c r="C21">
-        <v>296.56</v>
-      </c>
-      <c r="D21">
-        <v>303</v>
-      </c>
-      <c r="E21">
-        <v>1.23</v>
+      <c r="B21" s="1">
+        <v>92</v>
+      </c>
+      <c r="C21" s="1">
+        <v>94.72</v>
+      </c>
+      <c r="D21" s="1">
+        <v>99</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22">
-        <v>293</v>
-      </c>
-      <c r="C22">
-        <v>295.07</v>
-      </c>
-      <c r="D22">
-        <v>298</v>
-      </c>
-      <c r="E22">
-        <v>9.1999999999999993</v>
+      <c r="B22" s="1">
+        <v>104</v>
+      </c>
+      <c r="C22" s="1">
+        <v>105.85</v>
+      </c>
+      <c r="D22" s="1">
+        <v>109</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.82</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23">
-        <v>295</v>
-      </c>
-      <c r="C23">
-        <v>297.07</v>
-      </c>
-      <c r="D23">
-        <v>300</v>
-      </c>
-      <c r="E23">
-        <v>1.68</v>
+      <c r="B23" s="1">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1">
+        <v>105.85</v>
+      </c>
+      <c r="D23" s="1">
+        <v>109</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1">
+        <v>93.38</v>
+      </c>
+      <c r="D24" s="1">
+        <v>101</v>
+      </c>
+      <c r="E24" s="1">
+        <v>11.2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>2448</v>
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>87</v>
+      </c>
+      <c r="C25" s="1">
+        <v>94.87</v>
+      </c>
+      <c r="D25" s="1">
+        <v>106</v>
+      </c>
+      <c r="E25" s="1">
+        <v>76.13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1">
+        <v>95.28</v>
+      </c>
+      <c r="D26" s="1">
+        <v>107</v>
+      </c>
+      <c r="E26" s="1">
+        <v>12.2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>10913</v>
-      </c>
-      <c r="C27">
-        <v>10913.5</v>
-      </c>
-      <c r="D27">
-        <v>10985</v>
-      </c>
-      <c r="E27">
-        <v>0.26</v>
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
+        <v>201</v>
+      </c>
+      <c r="C27" s="1">
+        <v>222.5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>276</v>
+      </c>
+      <c r="E27" s="1">
+        <v>25046.27</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <v>5574</v>
-      </c>
-      <c r="C28">
-        <v>5583.19</v>
-      </c>
-      <c r="D28">
-        <v>5601</v>
-      </c>
-      <c r="E28">
-        <v>0.26</v>
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1">
+        <v>95.87</v>
+      </c>
+      <c r="D28" s="1">
+        <v>107</v>
+      </c>
+      <c r="E28" s="1">
+        <v>24071.08</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>2694</v>
-      </c>
-      <c r="C29">
-        <v>2751.39</v>
-      </c>
-      <c r="D29">
-        <v>2879</v>
-      </c>
-      <c r="E29">
-        <v>2.46</v>
+        <v>25</v>
+      </c>
+      <c r="B29" s="1">
+        <v>87</v>
+      </c>
+      <c r="C29" s="1">
+        <v>92.38</v>
+      </c>
+      <c r="D29" s="1">
+        <v>100</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5110.3999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30">
-        <v>2771</v>
-      </c>
-      <c r="C30">
-        <v>2823.41</v>
-      </c>
-      <c r="D30">
-        <v>2944</v>
-      </c>
-      <c r="E30">
-        <v>19.329999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31">
-        <v>2789</v>
-      </c>
-      <c r="C31">
-        <v>2835.24</v>
-      </c>
-      <c r="D31">
-        <v>2935</v>
-      </c>
-      <c r="E31">
-        <v>14.6</v>
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>87</v>
+      </c>
+      <c r="C30" s="1">
+        <v>91.56</v>
+      </c>
+      <c r="D30" s="1">
+        <v>98</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2561.27</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>190</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -884,203 +942,212 @@
       <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="B35">
-        <v>332</v>
-      </c>
-      <c r="C35">
-        <v>334.69</v>
-      </c>
-      <c r="D35">
-        <v>346</v>
-      </c>
-      <c r="E35">
-        <v>0.05</v>
+      <c r="B35" s="1">
+        <v>542</v>
+      </c>
+      <c r="C35" s="1">
+        <v>542.65</v>
+      </c>
+      <c r="D35" s="1">
+        <v>560</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.15</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B36">
-        <v>193</v>
-      </c>
-      <c r="C36">
-        <v>193.93</v>
-      </c>
-      <c r="D36">
-        <v>196</v>
-      </c>
-      <c r="E36">
-        <v>0.05</v>
+      <c r="B36" s="1">
+        <v>294</v>
+      </c>
+      <c r="C36" s="1">
+        <v>297.79000000000002</v>
+      </c>
+      <c r="D36" s="1">
+        <v>304</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.16</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
-      <c r="B37">
-        <v>221</v>
-      </c>
-      <c r="C37">
-        <v>224.07</v>
-      </c>
-      <c r="D37">
-        <v>230</v>
-      </c>
-      <c r="E37">
-        <v>0.06</v>
+      <c r="B37" s="1">
+        <v>292</v>
+      </c>
+      <c r="C37" s="1">
+        <v>296.56</v>
+      </c>
+      <c r="D37" s="1">
+        <v>303</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.23</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="B38">
-        <v>215</v>
-      </c>
-      <c r="C38">
-        <v>215.87</v>
-      </c>
-      <c r="D38">
-        <v>218</v>
-      </c>
-      <c r="E38">
-        <v>0.08</v>
+      <c r="B38" s="1">
+        <v>293</v>
+      </c>
+      <c r="C38" s="1">
+        <v>295.07</v>
+      </c>
+      <c r="D38" s="1">
+        <v>298</v>
+      </c>
+      <c r="E38" s="1">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B39">
-        <v>215</v>
-      </c>
-      <c r="C39">
-        <v>215.87</v>
-      </c>
-      <c r="D39">
-        <v>218</v>
-      </c>
-      <c r="E39">
-        <v>0.09</v>
+      <c r="B39" s="1">
+        <v>295</v>
+      </c>
+      <c r="C39" s="1">
+        <v>297.07</v>
+      </c>
+      <c r="D39" s="1">
+        <v>300</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1">
+        <v>292</v>
+      </c>
+      <c r="C40" s="1">
+        <v>315.2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>348</v>
+      </c>
+      <c r="E40" s="1">
+        <v>33.479999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41">
-        <v>6935</v>
+        <v>21</v>
+      </c>
+      <c r="B41" s="1">
+        <v>292</v>
+      </c>
+      <c r="C41" s="1">
+        <v>312.70999999999998</v>
+      </c>
+      <c r="D41" s="1">
+        <v>342</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1067.79</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="B42" s="1">
+        <v>292</v>
+      </c>
+      <c r="C42" s="1">
+        <v>313.95</v>
+      </c>
+      <c r="D42" s="1">
+        <v>345</v>
+      </c>
+      <c r="E42" s="1">
+        <v>52.34</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>13630</v>
-      </c>
-      <c r="C43">
-        <v>13630.38</v>
-      </c>
-      <c r="D43">
-        <v>13702</v>
-      </c>
-      <c r="E43">
-        <v>0.45</v>
+        <v>23</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1724</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1900.27</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2396</v>
+      </c>
+      <c r="E43" s="1">
+        <v>55455.87</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>6934</v>
-      </c>
-      <c r="C44">
-        <v>6934</v>
-      </c>
-      <c r="D44">
-        <v>6934</v>
-      </c>
-      <c r="E44">
-        <v>0.32</v>
+        <v>24</v>
+      </c>
+      <c r="B44" s="1">
+        <v>292</v>
+      </c>
+      <c r="C44" s="1">
+        <v>321.41000000000003</v>
+      </c>
+      <c r="D44" s="1">
+        <v>363</v>
+      </c>
+      <c r="E44" s="1">
+        <v>52144.82</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45">
-        <v>6934</v>
-      </c>
-      <c r="C45">
-        <v>6934</v>
-      </c>
-      <c r="D45">
-        <v>6934</v>
-      </c>
-      <c r="E45">
-        <v>1.84</v>
+        <v>25</v>
+      </c>
+      <c r="B45" s="1">
+        <v>293</v>
+      </c>
+      <c r="C45" s="1">
+        <v>313.12</v>
+      </c>
+      <c r="D45" s="1">
+        <v>342</v>
+      </c>
+      <c r="E45" s="1">
+        <v>24268.09</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46">
-        <v>6934</v>
-      </c>
-      <c r="C46">
-        <v>6934</v>
-      </c>
-      <c r="D46">
-        <v>6934</v>
-      </c>
-      <c r="E46">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47">
-        <v>6934</v>
-      </c>
-      <c r="C47">
-        <v>6934</v>
-      </c>
-      <c r="D47">
-        <v>6934</v>
-      </c>
-      <c r="E47">
-        <v>1.72</v>
+        <v>26</v>
+      </c>
+      <c r="B46" s="1">
+        <v>292</v>
+      </c>
+      <c r="C46" s="1">
+        <v>318.10000000000002</v>
+      </c>
+      <c r="D46" s="1">
+        <v>355</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3879.46</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B49">
-        <v>163</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1104,203 +1171,212 @@
       <c r="A51" t="s">
         <v>1</v>
       </c>
-      <c r="B51">
-        <v>1071</v>
-      </c>
-      <c r="C51">
-        <v>1079.01</v>
-      </c>
-      <c r="D51">
-        <v>1136</v>
-      </c>
-      <c r="E51">
-        <v>0.16</v>
+      <c r="B51" s="1">
+        <v>10913</v>
+      </c>
+      <c r="C51" s="1">
+        <v>10913.5</v>
+      </c>
+      <c r="D51" s="1">
+        <v>10985</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.26</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
-      <c r="B52">
-        <v>798</v>
-      </c>
-      <c r="C52">
-        <v>803.98</v>
-      </c>
-      <c r="D52">
-        <v>845</v>
-      </c>
-      <c r="E52">
-        <v>7.0000000000000007E-2</v>
+      <c r="B52" s="1">
+        <v>5574</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5583.19</v>
+      </c>
+      <c r="D52" s="1">
+        <v>5601</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.26</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
-      <c r="B53">
-        <v>407</v>
-      </c>
-      <c r="C53">
-        <v>450.59</v>
-      </c>
-      <c r="D53">
-        <v>540</v>
-      </c>
-      <c r="E53">
-        <v>0.48</v>
+      <c r="B53" s="1">
+        <v>2694</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2751.39</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2879</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2.46</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
-      <c r="B54">
-        <v>373</v>
-      </c>
-      <c r="C54">
-        <v>405.2</v>
-      </c>
-      <c r="D54">
-        <v>482</v>
-      </c>
-      <c r="E54">
-        <v>0.86</v>
+      <c r="B54" s="1">
+        <v>2771</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2823.41</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2944</v>
+      </c>
+      <c r="E54" s="1">
+        <v>19.329999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
-      <c r="B55">
-        <v>433</v>
-      </c>
-      <c r="C55">
-        <v>454.12</v>
-      </c>
-      <c r="D55">
-        <v>517</v>
-      </c>
-      <c r="E55">
-        <v>0.78</v>
+      <c r="B55" s="1">
+        <v>2789</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2835.24</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2935</v>
+      </c>
+      <c r="E55" s="1">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2547</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2809.71</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3194</v>
+      </c>
+      <c r="E56" s="1">
+        <v>663.02</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57">
-        <v>1359</v>
+        <v>21</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2518</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2705.01</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2984</v>
+      </c>
+      <c r="E57" s="1">
+        <v>873271.53</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2485</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2703.66</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3017</v>
+      </c>
+      <c r="E58" s="1">
+        <v>27494.09</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59">
-        <v>10771</v>
-      </c>
-      <c r="C59">
-        <v>10771.54</v>
-      </c>
-      <c r="D59">
-        <v>10842</v>
-      </c>
-      <c r="E59">
-        <v>0.27</v>
+        <v>23</v>
+      </c>
+      <c r="B59" s="1">
+        <v>81686</v>
+      </c>
+      <c r="C59" s="1">
+        <v>90773.45</v>
+      </c>
+      <c r="D59" s="1">
+        <v>115397</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1771093.39</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60">
-        <v>5499</v>
-      </c>
-      <c r="C60">
-        <v>5514.81</v>
-      </c>
-      <c r="D60">
-        <v>5547</v>
-      </c>
-      <c r="E60">
-        <v>0.08</v>
+        <v>24</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2563</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2811.81</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3186</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2270588.38</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61">
-        <v>1605</v>
-      </c>
-      <c r="C61">
-        <v>1665.83</v>
-      </c>
-      <c r="D61">
-        <v>1804</v>
-      </c>
-      <c r="E61">
-        <v>3.28</v>
+        <v>25</v>
+      </c>
+      <c r="B61" s="1">
+        <v>3388</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3745.04</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4417</v>
+      </c>
+      <c r="E61" s="1">
+        <v>3071234.07</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62">
-        <v>1479</v>
-      </c>
-      <c r="C62">
-        <v>1521.57</v>
-      </c>
-      <c r="D62">
-        <v>1607</v>
-      </c>
-      <c r="E62">
-        <v>9.44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63">
-        <v>1575</v>
-      </c>
-      <c r="C63">
-        <v>1622.07</v>
-      </c>
-      <c r="D63">
-        <v>1734</v>
-      </c>
-      <c r="E63">
-        <v>9.5399999999999991</v>
+        <v>26</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2563</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2802.67</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3159</v>
+      </c>
+      <c r="E62" s="1">
+        <v>534441.31000000006</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B65">
-        <v>404</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,88 +1400,1305 @@
       <c r="A67" t="s">
         <v>1</v>
       </c>
-      <c r="B67">
-        <v>8666</v>
-      </c>
-      <c r="C67">
-        <v>8666.5300000000007</v>
-      </c>
-      <c r="D67">
-        <v>8727</v>
-      </c>
-      <c r="E67">
-        <v>0.14000000000000001</v>
+      <c r="B67" s="1">
+        <v>332</v>
+      </c>
+      <c r="C67" s="1">
+        <v>334.69</v>
+      </c>
+      <c r="D67" s="1">
+        <v>346</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
-      <c r="B68">
-        <v>4448</v>
-      </c>
-      <c r="C68">
-        <v>4452.43</v>
-      </c>
-      <c r="D68">
-        <v>4461</v>
-      </c>
-      <c r="E68">
-        <v>0.06</v>
+      <c r="B68" s="1">
+        <v>193</v>
+      </c>
+      <c r="C68" s="1">
+        <v>193.93</v>
+      </c>
+      <c r="D68" s="1">
+        <v>196</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
-      <c r="B69">
-        <v>625</v>
-      </c>
-      <c r="C69">
-        <v>683.9</v>
-      </c>
-      <c r="D69">
-        <v>796</v>
-      </c>
-      <c r="E69">
-        <v>0.4</v>
+      <c r="B69" s="1">
+        <v>221</v>
+      </c>
+      <c r="C69" s="1">
+        <v>224.07</v>
+      </c>
+      <c r="D69" s="1">
+        <v>230</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.06</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
-      <c r="B70">
-        <v>612</v>
-      </c>
-      <c r="C70">
-        <v>646.02</v>
-      </c>
-      <c r="D70">
-        <v>719</v>
-      </c>
-      <c r="E70">
-        <v>0.64</v>
+      <c r="B70" s="1">
+        <v>215</v>
+      </c>
+      <c r="C70" s="1">
+        <v>215.87</v>
+      </c>
+      <c r="D70" s="1">
+        <v>218</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.08</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
+        <v>215</v>
+      </c>
+      <c r="C71" s="1">
+        <v>215.87</v>
+      </c>
+      <c r="D71" s="1">
+        <v>218</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="1">
+        <v>193</v>
+      </c>
+      <c r="C72" s="1">
+        <v>194.76</v>
+      </c>
+      <c r="D72" s="1">
+        <v>198</v>
+      </c>
+      <c r="E72" s="1">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="1">
+        <v>218</v>
+      </c>
+      <c r="C73" s="1">
+        <v>224.16</v>
+      </c>
+      <c r="D73" s="1">
+        <v>238</v>
+      </c>
+      <c r="E73" s="1">
+        <v>358.58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="1">
+        <v>193</v>
+      </c>
+      <c r="C74" s="1">
+        <v>194.76</v>
+      </c>
+      <c r="D74" s="1">
+        <v>198</v>
+      </c>
+      <c r="E74" s="1">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1979</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2164.6</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2674</v>
+      </c>
+      <c r="E75" s="1">
+        <v>25949.99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="1">
+        <v>193</v>
+      </c>
+      <c r="C76" s="1">
+        <v>194.76</v>
+      </c>
+      <c r="D76" s="1">
+        <v>198</v>
+      </c>
+      <c r="E76" s="1">
+        <v>22863.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="1">
+        <v>240</v>
+      </c>
+      <c r="C77" s="1">
+        <v>251</v>
+      </c>
+      <c r="D77" s="1">
+        <v>275</v>
+      </c>
+      <c r="E77" s="1">
+        <v>8151.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="1">
+        <v>193</v>
+      </c>
+      <c r="C78" s="1">
+        <v>194.76</v>
+      </c>
+      <c r="D78" s="1">
+        <v>198</v>
+      </c>
+      <c r="E78" s="1">
+        <v>2229.8000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81">
+        <v>6935</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1">
+        <v>13630</v>
+      </c>
+      <c r="C83" s="1">
+        <v>13630.38</v>
+      </c>
+      <c r="D83" s="1">
+        <v>13702</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="1">
+        <v>6934</v>
+      </c>
+      <c r="C84" s="1">
+        <v>6934</v>
+      </c>
+      <c r="D84" s="1">
+        <v>6934</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="1">
+        <v>6934</v>
+      </c>
+      <c r="C85" s="1">
+        <v>6934</v>
+      </c>
+      <c r="D85" s="1">
+        <v>6934</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="1">
+        <v>6934</v>
+      </c>
+      <c r="C86" s="1">
+        <v>6934</v>
+      </c>
+      <c r="D86" s="1">
+        <v>6934</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>6934</v>
+      </c>
+      <c r="C87" s="1">
+        <v>6934</v>
+      </c>
+      <c r="D87" s="1">
+        <v>6934</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="1">
+        <v>6934</v>
+      </c>
+      <c r="C88" s="1">
+        <v>7065.31</v>
+      </c>
+      <c r="D88" s="1">
+        <v>7251</v>
+      </c>
+      <c r="E88" s="1">
+        <v>3040.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1071</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1079.01</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1136</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="1">
+        <v>798</v>
+      </c>
+      <c r="C100" s="1">
+        <v>803.98</v>
+      </c>
+      <c r="D100" s="1">
+        <v>845</v>
+      </c>
+      <c r="E100" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="1">
+        <v>407</v>
+      </c>
+      <c r="C101" s="1">
+        <v>450.59</v>
+      </c>
+      <c r="D101" s="1">
+        <v>540</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="1">
+        <v>373</v>
+      </c>
+      <c r="C102" s="1">
+        <v>405.2</v>
+      </c>
+      <c r="D102" s="1">
+        <v>482</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>433</v>
+      </c>
+      <c r="C103" s="1">
+        <v>454.12</v>
+      </c>
+      <c r="D103" s="1">
+        <v>517</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="1">
+        <v>386</v>
+      </c>
+      <c r="C104" s="1">
+        <v>420.08</v>
+      </c>
+      <c r="D104" s="1">
+        <v>499</v>
+      </c>
+      <c r="E104" s="1">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="1">
+        <v>421</v>
+      </c>
+      <c r="C105" s="1">
+        <v>454.17</v>
+      </c>
+      <c r="D105" s="1">
+        <v>529</v>
+      </c>
+      <c r="E105" s="1">
+        <v>213.99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" s="1">
+        <v>371</v>
+      </c>
+      <c r="C106" s="1">
+        <v>404.6</v>
+      </c>
+      <c r="D106" s="1">
+        <v>479</v>
+      </c>
+      <c r="E106" s="1">
+        <v>27.16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="1">
+        <v>3346</v>
+      </c>
+      <c r="C107" s="1">
+        <v>3749.1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>4777</v>
+      </c>
+      <c r="E107" s="1">
+        <v>37003.71</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108" s="1">
+        <v>387</v>
+      </c>
+      <c r="C108" s="1">
+        <v>432.69</v>
+      </c>
+      <c r="D108" s="1">
+        <v>531</v>
+      </c>
+      <c r="E108" s="1">
+        <v>36889.81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="1">
+        <v>384</v>
+      </c>
+      <c r="C109" s="1">
+        <v>422.93</v>
+      </c>
+      <c r="D109" s="1">
+        <v>508</v>
+      </c>
+      <c r="E109" s="1">
+        <v>11199.11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" s="1">
+        <v>381</v>
+      </c>
+      <c r="C110" s="1">
+        <v>417.81</v>
+      </c>
+      <c r="D110" s="1">
+        <v>507</v>
+      </c>
+      <c r="E110" s="1">
+        <v>10172.84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="1">
+        <v>10771</v>
+      </c>
+      <c r="C115" s="1">
+        <v>10771.54</v>
+      </c>
+      <c r="D115" s="1">
+        <v>10842</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="1">
+        <v>5499</v>
+      </c>
+      <c r="C116" s="1">
+        <v>5514.81</v>
+      </c>
+      <c r="D116" s="1">
+        <v>5547</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1605</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1665.83</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1804</v>
+      </c>
+      <c r="E117" s="1">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1479</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1521.57</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1607</v>
+      </c>
+      <c r="E118" s="1">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1575</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1622.07</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1734</v>
+      </c>
+      <c r="E119" s="1">
+        <v>9.5399999999999991</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1428</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1579.27</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1805</v>
+      </c>
+      <c r="E120" s="1">
+        <v>200.27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1454</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1573.69</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1762</v>
+      </c>
+      <c r="E121" s="1">
+        <v>144161.60999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1408</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1533.58</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1721</v>
+      </c>
+      <c r="E122" s="1">
+        <v>3238.93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="1">
+        <v>48861</v>
+      </c>
+      <c r="C123" s="1">
+        <v>54155.93</v>
+      </c>
+      <c r="D123" s="1">
+        <v>68754</v>
+      </c>
+      <c r="E123" s="1">
+        <v>554952.38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1427</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1573.97</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1794</v>
+      </c>
+      <c r="E124" s="1">
+        <v>746790.12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1562</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1702.35</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1937</v>
+      </c>
+      <c r="E125" s="1">
+        <v>114218.23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>26</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1430</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1572.77</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1789</v>
+      </c>
+      <c r="E126" s="1">
+        <v>223293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="1">
+        <v>8666</v>
+      </c>
+      <c r="C131" s="1">
+        <v>8666.5300000000007</v>
+      </c>
+      <c r="D131" s="1">
+        <v>8727</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="1">
+        <v>4448</v>
+      </c>
+      <c r="C132" s="1">
+        <v>4452.43</v>
+      </c>
+      <c r="D132" s="1">
+        <v>4461</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="1">
+        <v>625</v>
+      </c>
+      <c r="C133" s="1">
+        <v>683.9</v>
+      </c>
+      <c r="D133" s="1">
+        <v>796</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="1">
+        <v>612</v>
+      </c>
+      <c r="C134" s="1">
+        <v>646.02</v>
+      </c>
+      <c r="D134" s="1">
+        <v>719</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="1">
         <v>640</v>
       </c>
-      <c r="C71">
+      <c r="C135" s="1">
         <v>666.44</v>
       </c>
-      <c r="D71">
+      <c r="D135" s="1">
         <v>739</v>
       </c>
-      <c r="E71">
+      <c r="E135" s="1">
         <v>0.67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" s="1">
+        <v>621</v>
+      </c>
+      <c r="C136" s="1">
+        <v>651.45000000000005</v>
+      </c>
+      <c r="D136" s="1">
+        <v>718</v>
+      </c>
+      <c r="E136" s="1">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" s="1">
+        <v>619</v>
+      </c>
+      <c r="C137" s="1">
+        <v>671.69</v>
+      </c>
+      <c r="D137" s="1">
+        <v>778</v>
+      </c>
+      <c r="E137" s="1">
+        <v>4071.94</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" s="1">
+        <v>582</v>
+      </c>
+      <c r="C138" s="1">
+        <v>614.54</v>
+      </c>
+      <c r="D138" s="1">
+        <v>686</v>
+      </c>
+      <c r="E138" s="1">
+        <v>210.73</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" s="1">
+        <v>12481</v>
+      </c>
+      <c r="C139" s="1">
+        <v>13661.09</v>
+      </c>
+      <c r="D139" s="1">
+        <v>16949</v>
+      </c>
+      <c r="E139" s="1">
+        <v>75540.56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="1">
+        <v>621</v>
+      </c>
+      <c r="C140" s="1">
+        <v>651.45000000000005</v>
+      </c>
+      <c r="D140" s="1">
+        <v>718</v>
+      </c>
+      <c r="E140" s="1">
+        <v>85273</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>25</v>
+      </c>
+      <c r="B141" s="1">
+        <v>645</v>
+      </c>
+      <c r="C141" s="1">
+        <v>682.56</v>
+      </c>
+      <c r="D141" s="1">
+        <v>770</v>
+      </c>
+      <c r="E141" s="1">
+        <v>52702.26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142" s="2">
+        <v>568</v>
+      </c>
+      <c r="C142" s="2">
+        <v>606.87</v>
+      </c>
+      <c r="D142" s="2">
+        <v>685</v>
+      </c>
+      <c r="E142" s="1">
+        <v>34044.14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>27</v>
+      </c>
+      <c r="B145">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="1">
+        <v>8066</v>
+      </c>
+      <c r="C147" s="1">
+        <v>8066.56</v>
+      </c>
+      <c r="D147" s="1">
+        <v>8129</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="1">
+        <v>4746</v>
+      </c>
+      <c r="C148" s="1">
+        <v>4752.2</v>
+      </c>
+      <c r="D148" s="1">
+        <v>4805</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1115</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1286.1500000000001</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1657</v>
+      </c>
+      <c r="E149" s="1">
+        <v>160.58000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1164</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1300.52</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1636</v>
+      </c>
+      <c r="E150" s="1">
+        <v>121.84</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1299</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1401.41</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1677</v>
+      </c>
+      <c r="E151" s="1">
+        <v>40.33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1139</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1282.6099999999999</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1605</v>
+      </c>
+      <c r="E152" s="1">
+        <v>54.67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1066</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1202.24</v>
+      </c>
+      <c r="D153" s="1">
+        <v>1517</v>
+      </c>
+      <c r="E153" s="1">
+        <v>4027.74</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1031</v>
+      </c>
+      <c r="C154" s="2">
+        <v>1165.99</v>
+      </c>
+      <c r="D154" s="1">
+        <v>1469</v>
+      </c>
+      <c r="E154" s="1">
+        <v>494.88</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155" s="1">
+        <v>11678</v>
+      </c>
+      <c r="C155" s="1">
+        <v>12900.52</v>
+      </c>
+      <c r="D155" s="1">
+        <v>16312</v>
+      </c>
+      <c r="E155" s="1">
+        <v>81021.33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1139</v>
+      </c>
+      <c r="C156" s="1">
+        <v>1282.6099999999999</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1605</v>
+      </c>
+      <c r="E156" s="1">
+        <v>78065.78</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>25</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1125</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1259.1199999999999</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1580</v>
+      </c>
+      <c r="E157" s="1">
+        <v>51364.94</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>26</v>
+      </c>
+      <c r="B158" s="2">
+        <v>1049</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1173.07</v>
+      </c>
+      <c r="D158" s="2">
+        <v>1465</v>
+      </c>
+      <c r="E158" s="1">
+        <v>16749.669999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>